--- a/AAII_Financials/Yearly/TXHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TXHG_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/TXHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TXHG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>TXHG</t>
   </si>
@@ -1106,8 +1106,8 @@
       <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
-        <v>400</v>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
@@ -2922,8 +2922,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3267,8 +3267,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3447,8 +3447,8 @@
       <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>400</v>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>1100</v>
@@ -3480,8 +3480,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/TXHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TXHG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>TXHG</t>
   </si>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1800</v>
       </c>
       <c r="K44" s="3">
         <v>800</v>
@@ -1793,13 +1793,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2500</v>
       </c>
       <c r="K46" s="3">
         <v>1100</v>
@@ -1852,8 +1852,8 @@
       <c r="D47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -1901,7 +1901,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2014,23 +2014,23 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>400</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E54" s="3">
         <v>2100</v>
       </c>
       <c r="F54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2600</v>
       </c>
       <c r="K54" s="3">
         <v>1200</v>
@@ -2147,22 +2147,22 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>1400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1400</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
@@ -2243,22 +2243,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2300</v>
       </c>
       <c r="J60" s="3">
         <v>2300</v>
@@ -2276,13 +2276,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2000</v>
       </c>
       <c r="G61" s="3">
         <v>2000</v>
@@ -2294,7 +2294,7 @@
         <v>2000</v>
       </c>
       <c r="J61" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K61" s="3">
         <v>1400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E66" s="3">
         <v>4100</v>
       </c>
       <c r="F66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3700</v>
       </c>
       <c r="K66" s="3">
         <v>2700</v>
@@ -2630,16 +2630,16 @@
         <v>-15600</v>
       </c>
       <c r="G72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-15400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-14700</v>
       </c>
       <c r="K72" s="3">
         <v>-15000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E76" s="3">
         <v>-2000</v>
       </c>
       <c r="F76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1100</v>
       </c>
       <c r="K76" s="3">
         <v>-1500</v>
